--- a/tabs/crosstabs/NSS.stupeň.xlsx
+++ b/tabs/crosstabs/NSS.stupeň.xlsx
@@ -9,24 +9,20 @@
     <sheet name="marg_dia" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="marg_mod" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="comb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="dia_IH" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="dia_NT1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="dia_NT2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mod_1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="mod_2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="mod_3" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="mod_4" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="dia_NT1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="dia_NT2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mod_1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mod_2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mod_3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mod_4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IH</t>
   </si>
   <si>
     <t xml:space="preserve">NT1</t>
@@ -140,16 +136,10 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">IH_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">NT1_1</t>
   </si>
   <si>
     <t xml:space="preserve">NT2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IH_2</t>
   </si>
   <si>
     <t xml:space="preserve">NT1_2</t>
@@ -158,16 +148,10 @@
     <t xml:space="preserve">NT2_2</t>
   </si>
   <si>
-    <t xml:space="preserve">IH_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">NT1_3</t>
   </si>
   <si>
     <t xml:space="preserve">NT2_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IH_4</t>
   </si>
   <si>
     <t xml:space="preserve">NT1_4</t>
@@ -515,903 +499,345 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
       <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
-      </c>
-      <c r="D14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
-      </c>
-      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
-      </c>
-      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
-      </c>
-      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
-      </c>
-      <c r="D30" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,21 +860,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1465,7 +891,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1482,7 +908,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1499,7 +925,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -1516,7 +942,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -1533,7 +959,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
@@ -1550,7 +976,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
         <v>5</v>
@@ -1567,7 +993,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1584,7 +1010,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -1601,7 +1027,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1618,7 +1044,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -1635,7 +1061,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1652,7 +1078,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -1669,7 +1095,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1686,7 +1112,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1703,7 +1129,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
@@ -1720,7 +1146,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1737,7 +1163,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -1754,7 +1180,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -1771,7 +1197,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1788,7 +1214,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1805,7 +1231,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -1822,7 +1248,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1839,7 +1265,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1856,7 +1282,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -1873,7 +1299,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -1890,7 +1316,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1907,7 +1333,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1924,7 +1350,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
@@ -1941,7 +1367,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1958,7 +1384,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1992,45 +1418,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -2039,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2051,36 +1465,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2089,30 +1491,18 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -2121,218 +1511,158 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2341,24 +1671,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -2370,36 +1688,24 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -2408,89 +1714,65 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2499,71 +1781,47 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2587,24 +1845,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -2613,48 +1859,36 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2666,33 +1900,21 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5</v>
-      </c>
-      <c r="M17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2710,24 +1932,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -2736,80 +1946,56 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3</v>
-      </c>
-      <c r="M20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2818,39 +2004,27 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -2859,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2874,24 +2048,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -2900,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2915,24 +2077,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -2956,24 +2106,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -2982,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2997,33 +2135,21 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -3038,24 +2164,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -3064,39 +2178,27 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -3105,39 +2207,27 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -3146,80 +2236,56 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2</v>
-      </c>
-      <c r="M30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -3228,48 +2294,36 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3284,18 +2338,6 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3318,149 +2360,149 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3468,7 +2510,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -3477,32 +2519,32 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -3519,41 +2561,41 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -3570,44 +2612,44 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -3621,16 +2663,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -3638,33 +2680,33 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3672,13 +2714,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -3689,16 +2731,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3706,7 +2748,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -3723,13 +2765,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3740,10 +2782,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -3757,81 +2799,81 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3842,16 +2884,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3876,149 +2918,149 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -4026,47 +3068,47 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4077,41 +3119,41 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -4128,44 +3170,44 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -4179,16 +3221,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -4196,33 +3238,33 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -4230,13 +3272,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4247,16 +3289,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -4264,7 +3306,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -4281,13 +3323,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4298,7 +3340,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -4315,81 +3357,81 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4400,16 +3442,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4434,542 +3476,350 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4997,441 +3847,345 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5459,441 +4213,345 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5921,441 +4579,345 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/tabs/crosstabs/NSS.stupeň.xlsx
+++ b/tabs/crosstabs/NSS.stupeň.xlsx
@@ -148,10 +148,10 @@
     <t xml:space="preserve">21</t>
   </si>
   <si>
+    <t xml:space="preserve">4 (1.83 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (1.83 %)</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -902,7 +902,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1397,10 +1397,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -1408,16 +1408,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -2210,13 +2210,13 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2239,13 +2239,13 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -2897,10 +2897,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -2908,16 +2908,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -4250,7 +4250,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -4616,7 +4616,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>

--- a/tabs/crosstabs/NSS.stupeň.xlsx
+++ b/tabs/crosstabs/NSS.stupeň.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
-  <si>
-    <t xml:space="preserve"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+  <si>
+    <t xml:space="preserve">Issue</t>
   </si>
   <si>
     <t xml:space="preserve">NT1</t>
@@ -31,157 +31,175 @@
     <t xml:space="preserve">NT2</t>
   </si>
   <si>
+    <t xml:space="preserve">No time for hobbies due to sleepiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor-quality night sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (0.46 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.94 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1.38 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oversleeping and missing something important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossibility to sport due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear of motherhood due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0.92 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No problem reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeling unrefreshed after daytime/nocturnal sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (5.88 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems to find the job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nightmares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (1.83 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The necessity to take medication due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypnagogic hallucinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (2.29 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep paralysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems with concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (2.75 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of time spent with children due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear of the disease getting worse in time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (4.13 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear of losing the job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited work/home performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (3.21 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cataplexy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (5.50 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feelings of incompetence (work area)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving ban/difficulty to drive due to symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (5.05 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulty waking up after a nocturnal sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (8.82 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited social life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stigmatization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feelings of inferiority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (7.80 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falling asleep in calm situations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (8.26 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperative sleepiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (11.93 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad mood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (7.34 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (9.17 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (23.53 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (1.38 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0.00 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">16 (7.34 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (8.82 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">12 (5.50 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">7 (3.21 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (5.05 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (8.26 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (9.17 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (23.53 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (2.29 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.94 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (0.92 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (4.13 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (5.88 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (7.80 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (11.93 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.46 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (1.83 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (2.75 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
+    <t xml:space="preserve">2 (5.41 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (2.70 %)</t>
   </si>
   <si>
     <t xml:space="preserve">1 (1.12 %)</t>
@@ -193,7 +211,22 @@
     <t xml:space="preserve">1 (2.63 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (5.41 %)</t>
+    <t xml:space="preserve">2 (2.25 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.27 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (3.37 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (3.41 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (5.26 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (5.68 %)</t>
   </si>
   <si>
     <t xml:space="preserve">6 (6.74 %)</t>
@@ -205,13 +238,22 @@
     <t xml:space="preserve">3 (7.89 %)</t>
   </si>
   <si>
+    <t xml:space="preserve">3 (8.11 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 (4.49 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (3.41 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (8.11 %)</t>
+    <t xml:space="preserve">4 (10.81 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (6.82 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (7.95 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (10.53 %)</t>
   </si>
   <si>
     <t xml:space="preserve">5 (13.51 %)</t>
@@ -220,45 +262,15 @@
     <t xml:space="preserve">9 (10.11 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">5 (5.68 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (5.26 %)</t>
+    <t xml:space="preserve">9 (10.23 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (13.16 %)</t>
   </si>
   <si>
     <t xml:space="preserve">13 (14.61 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (6.82 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (10.53 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2.70 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.25 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (3.37 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (7.95 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (10.23 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (13.16 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (10.81 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.27 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">NT1_1</t>
   </si>
   <si>
@@ -283,58 +295,58 @@
     <t xml:space="preserve">NT2_4</t>
   </si>
   <si>
+    <t xml:space="preserve">0 (NaN %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (4.17 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (7.69 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 (1.28 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">0 (NaN %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (4.17 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (7.69 %)</t>
+    <t xml:space="preserve">1 (9.09 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.56 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (3.85 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (20.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (6.41 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (10.26 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (10.00 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (12.50 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5.13 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (15.38 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (8.33 %)</t>
   </si>
   <si>
     <t xml:space="preserve">6 (7.69 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (20.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (10.26 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (15.38 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (3.85 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (9.09 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (12.50 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.13 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (6.41 %)</t>
-  </si>
-  <si>
     <t xml:space="preserve">9 (11.54 %)</t>
   </si>
   <si>
     <t xml:space="preserve">4 (36.36 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.56 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (10.00 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (8.33 %)</t>
   </si>
 </sst>
 </file>
@@ -685,136 +697,136 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -822,200 +834,200 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
         <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1037,16 +1049,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -1054,472 +1066,472 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
         <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
@@ -1527,53 +1539,53 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1595,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
@@ -1624,898 +1636,898 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>94</v>
       </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
         <v>94</v>
       </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
-      </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
         <v>97</v>
       </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>98</v>
-      </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
       </c>
       <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
         <v>96</v>
       </c>
-      <c r="F21" t="s">
-        <v>102</v>
-      </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
         <v>95</v>
       </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
         <v>67</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="H32" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2537,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -2554,472 +2566,472 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
         <v>97</v>
       </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
@@ -3027,53 +3039,53 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3095,16 +3107,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -3112,526 +3124,526 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3664,340 +3676,340 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4030,340 +4042,340 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4396,340 +4408,340 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4762,340 +4774,340 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
